--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -976,8 +995,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,25 +1071,26 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1087,8 +1113,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,16 +1125,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1128,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1190,7 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1186,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,8 +1292,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1262,31 +1301,34 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1309,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,25 +1439,28 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1432,25 +1483,28 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1473,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1718,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1678,25 +1747,28 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1719,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,25 +1835,28 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -1801,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1890,13 +1976,13 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2065,29 +2163,32 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2095,13 +2196,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2127,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,8 +2536,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2423,13 +2548,13 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,25 +2618,26 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2524,28 +2654,31 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2556,8 +2689,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2571,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2612,25 +2748,28 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2647,14 +2786,17 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,25 +3012,28 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -2893,14 +3050,17 @@
       <c r="M66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,28 +3250,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-7600</v>
       </c>
       <c r="J72" s="3">
         <v>-7600</v>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,26 +3426,29 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,71 +3514,77 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -3413,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,23 +3889,26 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3717,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,14 +4100,14 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -3898,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,28 +4321,31 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4120,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,22 +4409,25 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>200</v>
       </c>
       <c r="F102" s="3">
         <v>200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -4200,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,97 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +798,26 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +860,26 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +922,26 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +958,14 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +1008,26 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +1070,31 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -990,31 +1109,49 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1194,26 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1227,76 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,40 +1307,58 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1375,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,28 +1390,28 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1222,8 +1425,26 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1487,26 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1295,14 +1534,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1310,52 +1549,88 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1673,26 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1735,150 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1921,26 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1983,26 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +2045,26 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +2107,26 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,28 +2134,28 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1750,52 +2169,88 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2293,155 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2458,14 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2482,47 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2532,26 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2594,26 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2656,26 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2718,26 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2166,62 +2759,80 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2842,26 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2904,26 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2966,26 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +3028,26 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +3090,26 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +3152,26 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +3214,26 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +3276,59 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +3338,26 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +3374,14 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +3398,19 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -2640,98 +3425,134 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2751,52 +3572,88 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,31 +3696,49 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3758,26 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3820,26 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3882,26 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3944,88 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
+      <c r="O66" s="3">
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +4042,14 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +4092,26 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +4154,26 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +4216,26 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +4278,88 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>-8800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-7600</v>
       </c>
       <c r="P72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +4402,26 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +4464,26 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +4526,88 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4650,155 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4815,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4865,26 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4927,26 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4989,26 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +5051,26 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +5113,26 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +5175,26 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,32 +5202,32 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +5237,26 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +5273,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +5323,26 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +5385,26 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,16 +5447,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4103,11 +5482,11 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4121,17 +5500,35 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +5545,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +5595,26 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +5657,26 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +5719,26 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +5781,26 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +5808,61 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +5905,26 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,32 +5932,32 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +5965,24 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,16 +1105,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1109,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1135,8 +1155,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,16 +1259,17 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1254,25 +1281,25 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1295,8 +1322,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,7 +1334,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1316,25 +1346,25 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1357,8 +1387,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1402,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
@@ -1414,7 +1448,7 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1443,8 +1477,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1552,8 +1592,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1561,22 +1601,25 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1588,25 +1631,25 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1629,8 +1672,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,16 +1802,19 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -1774,25 +1826,25 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1815,16 +1867,19 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -1836,25 +1891,25 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1877,8 +1932,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2146,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
@@ -2158,7 +2228,7 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2187,16 +2257,19 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2208,25 +2281,25 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2249,8 +2322,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,16 +2387,19 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2332,25 +2411,25 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2373,75 +2452,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,13 +2574,14 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2512,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2777,34 +2876,37 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2822,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,13 +3417,16 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3318,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3419,7 +3550,7 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3428,22 +3559,22 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3460,25 +3591,28 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
@@ -3487,22 +3621,22 @@
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3513,8 +3647,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3528,34 +3662,37 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3590,46 +3727,49 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3646,14 +3786,17 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3740,8 +3886,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,46 +4117,49 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1100</v>
       </c>
       <c r="J66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -4018,14 +4176,17 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,49 +4467,52 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-7600</v>
       </c>
       <c r="Q72" s="3">
         <v>-7600</v>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,47 +4727,50 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,83 +4857,89 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -4756,25 +4951,25 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -4797,8 +4992,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,19 +5407,22 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -5214,23 +5431,23 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,16 +5692,19 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5500,14 +5730,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,19 +6042,22 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5823,25 +6069,25 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,13 +6172,16 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5944,22 +6196,22 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
       </c>
       <c r="M102" s="3">
         <v>200</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1132,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1158,8 +1177,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,19 +1285,20 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1284,25 +1310,25 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1325,8 +1351,11 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,10 +1363,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1349,25 +1378,25 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1390,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1439,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
@@ -1451,7 +1484,7 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1480,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1634,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1604,25 +1643,28 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1634,25 +1676,25 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1675,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,19 +1853,22 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1829,25 +1880,25 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1870,19 +1921,22 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1894,25 +1948,25 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1935,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2204,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2219,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
@@ -2231,7 +2300,7 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2260,19 +2329,22 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -2284,25 +2356,25 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2325,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,19 +2465,22 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -2414,25 +2492,25 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2455,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,17 +2660,18 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2602,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2640,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2879,38 +2977,41 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2927,19 +3028,19 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,31 +3406,34 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,17 +3542,20 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -3447,19 +3572,19 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,13 +3664,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3553,7 +3683,7 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3562,22 +3692,22 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3594,28 +3724,31 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
@@ -3624,22 +3757,22 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3650,8 +3783,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3665,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3674,28 +3810,28 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3730,49 +3866,52 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1100</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
       </c>
       <c r="K60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3789,14 +3928,17 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3889,8 +4034,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,49 +4274,52 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>1100</v>
       </c>
       <c r="K66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -4179,14 +4336,17 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,52 +4640,55 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-7600</v>
       </c>
       <c r="R72" s="3">
         <v>-7600</v>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,50 +4912,53 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,89 +5048,95 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -4954,25 +5148,25 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4995,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,22 +5623,25 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5434,23 +5650,23 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5475,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5733,14 +5962,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,22 +6287,25 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>3500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -6072,25 +6317,25 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6110,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,17 +6423,20 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -6199,22 +6450,22 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>200</v>
       </c>
       <c r="N102" s="3">
         <v>200</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +837,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,25 +1161,31 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1154,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1180,11 +1220,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1338,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,16 +1349,16 @@
         <v>3600</v>
       </c>
       <c r="E17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1313,29 +1367,29 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1408,14 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,16 +1423,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1381,29 +1441,29 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1482,14 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,14 +1525,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1475,22 +1543,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1516,8 +1584,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,40 +1717,46 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1679,28 +1765,28 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-800</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -1720,8 +1806,14 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,25 +1954,31 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1883,28 +1987,28 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-800</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -1924,25 +2028,31 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1951,28 +2061,28 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-800</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -1992,8 +2102,14 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,14 +2413,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2291,22 +2431,22 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2332,25 +2472,31 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2359,28 +2505,28 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-800</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2400,8 +2546,14 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,25 +2620,31 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2495,28 +2653,28 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-800</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -2536,81 +2694,93 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,23 +2833,25 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2691,23 +2865,23 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2980,14 +3178,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -3001,23 +3199,29 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F46" s="3">
         <v>3100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -3031,23 +3235,23 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3347,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,31 +3421,37 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3643,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3435,11 +3675,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,23 +3791,29 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3575,23 +3827,23 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,19 +3925,21 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3686,35 +3948,35 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -3727,58 +3989,64 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3786,11 +4054,11 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3801,8 +4069,14 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,31 +4087,31 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3869,22 +4143,28 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1200</v>
       </c>
       <c r="H60" s="3">
         <v>1300</v>
@@ -3893,32 +4173,32 @@
         <v>1200</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
@@ -3931,14 +4211,20 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
+      <c r="W60" s="3">
+        <v>0</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4037,11 +4329,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,22 +4587,28 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1300</v>
@@ -4301,32 +4617,32 @@
         <v>1200</v>
       </c>
       <c r="J66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
@@ -4339,14 +4655,20 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
+      <c r="W66" s="3">
+        <v>0</v>
       </c>
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,58 +4985,64 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-7600</v>
       </c>
       <c r="T72" s="3">
         <v>-7600</v>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,22 +5281,28 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1200</v>
       </c>
       <c r="H76" s="3">
         <v>-1300</v>
@@ -4939,22 +5311,22 @@
         <v>-1200</v>
       </c>
       <c r="J76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -4963,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,98 +5429,110 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -5151,28 +5541,28 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-800</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -5192,8 +5582,14 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5638,41 +6072,41 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,28 +6378,34 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5965,17 +6425,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,20 +6791,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6320,28 +6812,28 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6369,20 +6867,20 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,14 +6939,14 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6453,26 +6957,26 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,28 +1184,31 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1200,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1226,8 +1246,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,28 +1366,29 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1373,25 +1400,25 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -1414,8 +1441,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,19 +1453,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1447,25 +1477,25 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -1488,8 +1518,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,17 +1559,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1549,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
@@ -1561,7 +1595,7 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1590,8 +1624,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1701,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,8 +1763,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1732,34 +1772,37 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-3900</v>
       </c>
       <c r="F23" s="3">
         <v>-3900</v>
       </c>
       <c r="G23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1771,25 +1814,25 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
@@ -1812,8 +1855,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,28 +2009,31 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-3900</v>
       </c>
       <c r="F26" s="3">
         <v>-3900</v>
       </c>
       <c r="G26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1993,25 +2045,25 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
@@ -2034,28 +2086,31 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-3900</v>
       </c>
       <c r="F27" s="3">
         <v>-3900</v>
       </c>
       <c r="G27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -2067,25 +2122,25 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
@@ -2108,8 +2163,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,17 +2483,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2437,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
@@ -2449,7 +2519,7 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2478,28 +2548,31 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-3900</v>
       </c>
       <c r="F33" s="3">
         <v>-3900</v>
       </c>
       <c r="G33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2511,25 +2584,25 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
@@ -2552,8 +2625,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,28 +2702,31 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-3900</v>
       </c>
       <c r="F35" s="3">
         <v>-3900</v>
       </c>
       <c r="G35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2659,25 +2738,25 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
@@ -2700,87 +2779,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,26 +2921,27 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2871,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2909,8 +2996,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3184,47 +3283,50 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -3241,19 +3343,19 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3458,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3427,20 +3535,23 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3453,8 +3564,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3663,8 +3783,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3681,8 +3801,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,26 +3920,29 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3833,19 +3959,19 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3939,10 +4070,10 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3954,7 +4085,7 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3963,22 +4094,22 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
@@ -3995,37 +4126,40 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
+      <c r="Y57" s="3">
+        <v>0</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
@@ -4034,22 +4168,22 @@
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -4060,8 +4194,8 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4075,8 +4209,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4093,28 +4230,28 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4149,58 +4286,61 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1100</v>
       </c>
       <c r="M60" s="3">
         <v>1100</v>
       </c>
       <c r="N60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
@@ -4217,14 +4357,17 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4335,8 +4481,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,58 +4748,61 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1100</v>
       </c>
       <c r="M66" s="3">
         <v>1100</v>
       </c>
       <c r="N66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
@@ -4661,14 +4819,17 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,61 +5162,64 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-7600</v>
       </c>
       <c r="U72" s="3">
         <v>-7600</v>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,59 +5470,62 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,107 +5624,113 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-3900</v>
       </c>
       <c r="F81" s="3">
         <v>-3900</v>
       </c>
       <c r="G81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -5547,25 +5742,25 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
@@ -5588,8 +5783,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,31 +6274,34 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -6093,23 +6310,23 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6351,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,19 +6611,22 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -6407,8 +6637,8 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6431,14 +6661,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7025,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6797,16 +7043,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>3500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6818,25 +7064,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6856,8 +7102,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6867,8 +7116,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
@@ -6882,8 +7131,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6930,13 +7179,16 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>-300</v>
@@ -6945,11 +7197,11 @@
         <v>-300</v>
       </c>
       <c r="G102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6963,22 +7215,22 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
-      </c>
-      <c r="P102" s="3">
-        <v>200</v>
       </c>
       <c r="Q102" s="3">
         <v>200</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,123 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,8 +857,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -927,8 +940,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,34 +1220,40 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1223,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1249,11 +1288,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1264,8 +1303,14 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,34 +1418,36 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>-11000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3400</v>
       </c>
       <c r="G17" s="3">
         <v>3600</v>
       </c>
       <c r="H17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1403,29 +1456,29 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1444,8 +1497,14 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1453,25 +1512,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3600</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-3400</v>
+        <v>11000</v>
       </c>
       <c r="G18" s="3">
         <v>-3600</v>
       </c>
       <c r="H18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1480,29 +1539,29 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1521,8 +1580,14 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1559,23 +1626,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
       </c>
       <c r="G20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1586,22 +1653,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1627,8 +1694,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1704,8 +1777,14 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1766,49 +1845,55 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>10500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1817,28 +1902,28 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-800</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
@@ -1858,8 +1943,14 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,34 +2109,40 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -2048,28 +2151,28 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-800</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -2089,34 +2192,40 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -2125,28 +2234,28 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-800</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -2166,8 +2275,14 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2483,23 +2622,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
       </c>
       <c r="G32" s="3">
+        <v>600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>500</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2510,22 +2649,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2551,34 +2690,40 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2587,28 +2732,28 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-800</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -2628,8 +2773,14 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,34 +2856,40 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2741,28 +2898,28 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-800</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -2782,90 +2939,102 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,32 +3093,34 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2961,23 +3134,23 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2999,8 +3172,14 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,8 +3255,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3153,8 +3338,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,13 +3421,19 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3286,14 +3483,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
@@ -3307,32 +3504,38 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3346,23 +3549,23 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3384,8 +3587,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,8 +3670,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3538,8 +3753,14 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,15 +3770,15 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3567,11 +3788,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3615,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,13 +4002,19 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3786,11 +4025,11 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3804,11 +4043,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,32 +4168,38 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -3962,23 +4213,23 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -4000,8 +4251,14 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,28 +4317,30 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -4088,35 +4349,35 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
@@ -4129,14 +4390,20 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4144,52 +4411,52 @@
         <v>4700</v>
       </c>
       <c r="E58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -4197,11 +4464,11 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4212,16 +4479,22 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -4233,31 +4506,31 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4289,31 +4562,37 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>1300</v>
@@ -4322,32 +4601,32 @@
         <v>1200</v>
       </c>
       <c r="M60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
         <v>0</v>
       </c>
@@ -4360,14 +4639,20 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
+      <c r="Z60" s="3">
+        <v>0</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,8 +4728,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4484,11 +4775,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,31 +5060,37 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>5200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
@@ -4784,32 +5099,32 @@
         <v>1200</v>
       </c>
       <c r="M66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
       <c r="V66" s="3">
         <v>0</v>
       </c>
@@ -4822,14 +5137,20 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
+      <c r="Z66" s="3">
+        <v>0</v>
       </c>
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,67 +5506,73 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-20800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-16800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-7800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-7600</v>
       </c>
       <c r="W72" s="3">
         <v>-7600</v>
@@ -5242,8 +5589,14 @@
       <c r="AA72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,31 +5838,37 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1200</v>
       </c>
       <c r="K76" s="3">
         <v>-1300</v>
@@ -5506,22 +5877,22 @@
         <v>-1200</v>
       </c>
       <c r="M76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
@@ -5530,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -5550,8 +5921,14 @@
       <c r="AA76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,116 +6004,128 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -5745,28 +6134,28 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-800</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
@@ -5786,8 +6175,14 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5892,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,16 +6704,22 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -6298,41 +6731,41 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6354,8 +6787,14 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6460,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,25 +7067,31 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -6640,11 +7099,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6664,17 +7123,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6691,8 +7150,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,8 +7513,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7046,20 +7537,20 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7067,28 +7558,28 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -7105,8 +7596,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7119,11 +7616,11 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -7134,11 +7631,11 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7182,8 +7679,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7191,23 +7694,23 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>
       </c>
       <c r="H102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J102" s="3">
         <v>3400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7218,26 +7721,26 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7760,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +867,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,37 +1243,40 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1268,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1294,8 +1314,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,37 +1446,38 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>-11000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1462,25 +1489,25 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
@@ -1503,8 +1530,11 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,25 +1545,25 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>11000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1545,25 +1575,25 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -1586,8 +1616,11 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1629,23 +1663,23 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1659,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1671,7 +1705,7 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1700,8 +1734,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,8 +1891,8 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
@@ -1860,14 +1900,17 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1878,25 +1921,25 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>10500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-3900</v>
       </c>
       <c r="I23" s="3">
         <v>-3900</v>
       </c>
       <c r="J23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1908,25 +1951,25 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
@@ -1949,8 +1992,11 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,37 +2164,40 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-3900</v>
       </c>
       <c r="I26" s="3">
         <v>-3900</v>
       </c>
       <c r="J26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -2157,25 +2209,25 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
@@ -2198,37 +2250,40 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-3900</v>
       </c>
       <c r="I27" s="3">
         <v>-3900</v>
       </c>
       <c r="J27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -2240,25 +2295,25 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
@@ -2281,8 +2336,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2625,23 +2695,23 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2655,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2667,7 +2737,7 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2696,37 +2766,40 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-3900</v>
       </c>
       <c r="I33" s="3">
         <v>-3900</v>
       </c>
       <c r="J33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2738,25 +2811,25 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
@@ -2779,8 +2852,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,37 +2938,40 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-3900</v>
       </c>
       <c r="I35" s="3">
         <v>-3900</v>
       </c>
       <c r="J35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2904,25 +2983,25 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
@@ -2945,96 +3024,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,35 +3181,36 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>1700</v>
       </c>
       <c r="E41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -3140,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,13 +3523,16 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3489,56 +3588,59 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3555,19 +3657,19 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3776,12 +3887,12 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3794,8 +3905,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,17 +4125,20 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -4031,8 +4151,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -4049,8 +4169,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4297,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4183,26 +4309,26 @@
         <v>2000</v>
       </c>
       <c r="E54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -4219,19 +4345,19 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4331,7 +4462,7 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -4340,10 +4471,10 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -4355,7 +4486,7 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -4364,22 +4495,22 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
@@ -4396,14 +4527,17 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
+      <c r="AB57" s="3">
+        <v>0</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4417,25 +4551,25 @@
         <v>4700</v>
       </c>
       <c r="G58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
@@ -4444,22 +4578,22 @@
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
@@ -4470,8 +4604,8 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4485,19 +4619,22 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -4512,28 +4649,28 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4568,67 +4705,70 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>5200</v>
       </c>
       <c r="F60" s="3">
         <v>5200</v>
       </c>
       <c r="G60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>1100</v>
       </c>
       <c r="Q60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
@@ -4645,14 +4785,17 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4781,8 +4927,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,67 +5221,70 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>5500</v>
       </c>
       <c r="E66" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F66" s="3">
         <v>5200</v>
       </c>
       <c r="G66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1100</v>
       </c>
       <c r="P66" s="3">
         <v>1100</v>
       </c>
       <c r="Q66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
@@ -5143,14 +5301,17 @@
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,70 +5683,73 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-7600</v>
       </c>
       <c r="X72" s="3">
         <v>-7600</v>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,68 +6027,71 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
         <v>0</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,125 +6199,131 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-3900</v>
       </c>
       <c r="I81" s="3">
         <v>-3900</v>
       </c>
       <c r="J81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -6140,25 +6335,25 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
@@ -6181,8 +6376,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6924,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6722,28 +6939,28 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6752,23 +6969,23 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,28 +7300,31 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -7105,8 +7335,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -7129,14 +7359,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7543,16 +7789,16 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>3500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -7564,25 +7810,25 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7622,8 +7871,8 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -7637,8 +7886,8 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7685,8 +7934,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7700,7 +7952,7 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-300</v>
@@ -7709,11 +7961,11 @@
         <v>-300</v>
       </c>
       <c r="J102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7727,22 +7979,22 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
-      </c>
-      <c r="S102" s="3">
-        <v>200</v>
       </c>
       <c r="T102" s="3">
         <v>200</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BUUZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>BUUZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,8 +874,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,40 +1263,43 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1291,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1317,8 +1337,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,40 +1473,41 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>-11000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1492,25 +1519,25 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>0</v>
@@ -1533,8 +1560,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1542,31 +1572,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>11000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1578,25 +1608,25 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
@@ -1619,8 +1649,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1666,23 +1700,23 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1696,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
@@ -1708,7 +1742,7 @@
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1737,8 +1771,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,8 +1860,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1894,8 +1934,8 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
@@ -1903,19 +1943,22 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1924,25 +1967,25 @@
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
         <v>10500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-3900</v>
       </c>
       <c r="J23" s="3">
         <v>-3900</v>
       </c>
       <c r="K23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1954,25 +1997,25 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -1995,8 +2038,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,13 +2216,16 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -2182,25 +2234,25 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>10500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-3900</v>
       </c>
       <c r="J26" s="3">
         <v>-3900</v>
       </c>
       <c r="K26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -2212,25 +2264,25 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>0</v>
@@ -2253,13 +2305,16 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2268,25 +2323,25 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-3900</v>
       </c>
       <c r="J27" s="3">
         <v>-3900</v>
       </c>
       <c r="K27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -2298,25 +2353,25 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>0</v>
@@ -2339,8 +2394,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2698,23 +2768,23 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2728,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
@@ -2740,7 +2810,7 @@
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2769,13 +2839,16 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2784,25 +2857,25 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-3900</v>
       </c>
       <c r="J33" s="3">
         <v>-3900</v>
       </c>
       <c r="K33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2814,25 +2887,25 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X33" s="3">
         <v>0</v>
@@ -2855,8 +2928,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,13 +3017,16 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2956,25 +3035,25 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-3900</v>
       </c>
       <c r="J35" s="3">
         <v>-3900</v>
       </c>
       <c r="K35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2986,25 +3065,25 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X35" s="3">
         <v>0</v>
@@ -3027,99 +3106,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,38 +3268,39 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3230,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -3268,8 +3355,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3444,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3440,8 +3533,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3591,59 +3690,62 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -3660,19 +3762,19 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3698,8 +3800,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,8 +3889,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3870,8 +3978,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3890,12 +4001,12 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3908,8 +4019,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,20 +4245,23 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -4154,8 +4274,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -4172,8 +4292,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,38 +4423,41 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E54" s="3">
         <v>2000</v>
       </c>
       <c r="F54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -4348,19 +4474,19 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -4386,8 +4512,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,13 +4580,14 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -4465,7 +4596,7 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -4474,10 +4605,10 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -4489,7 +4620,7 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -4498,22 +4629,22 @@
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4530,14 +4661,17 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
+      <c r="AC57" s="3">
+        <v>0</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4554,25 +4688,25 @@
         <v>4700</v>
       </c>
       <c r="H58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
@@ -4581,22 +4715,22 @@
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
@@ -4607,8 +4741,8 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4622,22 +4756,25 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -4652,28 +4789,28 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4708,70 +4845,73 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5200</v>
       </c>
       <c r="G60" s="3">
         <v>5200</v>
       </c>
       <c r="H60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1100</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
@@ -4788,14 +4928,17 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,8 +5023,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4930,8 +5076,8 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,70 +5379,73 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5200</v>
       </c>
       <c r="G66" s="3">
         <v>5200</v>
       </c>
       <c r="H66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1100</v>
       </c>
       <c r="Q66" s="3">
         <v>1100</v>
       </c>
       <c r="R66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>0</v>
@@ -5304,14 +5462,17 @@
       <c r="AB66" s="3">
         <v>0</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,73 +5857,76 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-7800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7700</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-7600</v>
       </c>
       <c r="Y72" s="3">
         <v>-7600</v>
@@ -5772,8 +5946,11 @@
       <c r="AD72" s="3">
         <v>-7600</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-7600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,71 +6213,74 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
       <c r="X76" s="3">
         <v>0</v>
       </c>
@@ -6116,8 +6302,11 @@
       <c r="AD76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,104 +6391,110 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -6308,25 +6503,25 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-3900</v>
       </c>
       <c r="J81" s="3">
         <v>-3900</v>
       </c>
       <c r="K81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -6338,25 +6533,25 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X81" s="3">
         <v>0</v>
@@ -6379,8 +6574,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,13 +7141,16 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6942,28 +7159,28 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -6972,23 +7189,23 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -7013,8 +7230,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,31 +7530,34 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -7338,8 +7568,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -7362,14 +7592,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -7389,8 +7619,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8008,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7792,16 +8038,16 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>3500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7813,25 +8059,25 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7851,8 +8097,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7874,8 +8123,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -7889,8 +8138,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -7937,13 +8186,16 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
@@ -7955,7 +8207,7 @@
         <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>-300</v>
@@ -7964,11 +8216,11 @@
         <v>-300</v>
       </c>
       <c r="K102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L102" s="3">
         <v>3400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7982,22 +8234,22 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
-      </c>
-      <c r="T102" s="3">
-        <v>200</v>
       </c>
       <c r="U102" s="3">
         <v>200</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -8021,6 +8273,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
